--- a/APM/DATA/TABLES/TR_IEEE_39.xlsx
+++ b/APM/DATA/TABLES/TR_IEEE_39.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" state="visible" r:id="rId2"/>
@@ -299,17 +299,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="139">
-  <si>
-    <t xml:space="preserve">Bienvenido al sistema SAMS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="137">
   <si>
     <t xml:space="preserve">Modulo 
 Transformadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Av, Carrera 30 No.45-03 Edifico 614 Bogotá D.C.
-(571) 316 5000 Ext. 11000</t>
   </si>
   <si>
     <t xml:space="preserve">Load</t>
@@ -1619,68 +1612,24 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>447840</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>332640</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="447840" y="1143000"/>
-          <a:ext cx="5591880" cy="2151360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1689,7 +1638,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1817,9 +1766,7 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1831,7 +1778,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1844,7 +1791,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1871,12 +1818,11 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1886,40 +1832,40 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.83"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="10" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="10" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="I1" s="82" t="s">
         <v>133</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="82" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42866</v>
@@ -1948,7 +1894,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,13 +1902,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42782</v>
@@ -1977,7 +1923,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,7 +3005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3069,21 +3015,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="97" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="97" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3098,190 +3044,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ326"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="10.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="10.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="16.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1023" min="37" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1023" min="37" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="6.88"/>
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AA1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AB1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AC1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AD1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AH1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AMJ1" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMJ1" s="17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="23" t="n">
         <v>25</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="26" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2" s="28" t="n">
         <v>345</v>
@@ -3293,10 +3239,10 @@
         <v>24.52</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O2" s="30" t="n">
         <v>1.25</v>
@@ -3314,7 +3260,7 @@
         <v>2.5</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U2" s="29" t="n">
         <v>2</v>
@@ -3323,7 +3269,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X2" s="29" t="n">
         <v>0.1306</v>
@@ -3365,36 +3311,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ2" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="42" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" s="44" t="n">
         <v>345</v>
@@ -3406,10 +3352,10 @@
         <v>35.03</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O3" s="30" t="n">
         <v>1.25</v>
@@ -3427,7 +3373,7 @@
         <v>2.5</v>
       </c>
       <c r="T3" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U3" s="45" t="n">
         <v>2</v>
@@ -3436,7 +3382,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X3" s="45" t="n">
         <v>0.1306</v>
@@ -3478,36 +3424,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ3" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="42" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" s="44" t="n">
         <v>345</v>
@@ -3519,10 +3465,10 @@
         <v>35.03</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O4" s="30" t="n">
         <v>1.25</v>
@@ -3540,7 +3486,7 @@
         <v>2.5</v>
       </c>
       <c r="T4" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U4" s="45" t="n">
         <v>2</v>
@@ -3549,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X4" s="45" t="n">
         <v>0.175</v>
@@ -3591,36 +3537,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ4" s="48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="42" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" s="44" t="n">
         <v>345</v>
@@ -3632,10 +3578,10 @@
         <v>28.02</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O5" s="30" t="n">
         <v>1.25</v>
@@ -3653,7 +3599,7 @@
         <v>2.5</v>
       </c>
       <c r="T5" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U5" s="45" t="n">
         <v>2</v>
@@ -3662,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="W5" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X5" s="45" t="n">
         <v>0.16</v>
@@ -3704,36 +3650,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ5" s="48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="42" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="44" t="n">
         <v>345</v>
@@ -3745,10 +3691,10 @@
         <v>24.52</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" s="30" t="n">
         <v>1.25</v>
@@ -3766,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U6" s="45" t="n">
         <v>2</v>
@@ -3775,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="W6" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X6" s="45" t="n">
         <v>0.1137</v>
@@ -3817,36 +3763,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ6" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="42" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G7" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7" s="44" t="n">
         <v>345</v>
@@ -3858,10 +3804,10 @@
         <v>28.02</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O7" s="30" t="n">
         <v>1.25</v>
@@ -3879,7 +3825,7 @@
         <v>3.5</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U7" s="45" t="n">
         <v>2</v>
@@ -3888,7 +3834,7 @@
         <v>3</v>
       </c>
       <c r="W7" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X7" s="45" t="n">
         <v>0.1081</v>
@@ -3930,36 +3876,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ7" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="42" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="44" t="n">
         <v>345</v>
@@ -3971,10 +3917,10 @@
         <v>2.51</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O8" s="30" t="n">
         <v>1.25</v>
@@ -3992,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U8" s="45" t="n">
         <v>2</v>
@@ -4001,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="W8" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X8" s="45" t="n">
         <v>0.1144</v>
@@ -4043,36 +3989,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ8" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" s="42" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9" s="44" t="n">
         <v>230</v>
@@ -4084,10 +4030,10 @@
         <v>21.01</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O9" s="30" t="n">
         <v>1.25</v>
@@ -4105,7 +4051,7 @@
         <v>0.899999976</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U9" s="45" t="n">
         <v>2</v>
@@ -4114,7 +4060,7 @@
         <v>3</v>
       </c>
       <c r="W9" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X9" s="45" t="n">
         <v>0.1904</v>
@@ -4156,36 +4102,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ9" s="48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="42" t="n">
         <v>9</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G10" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J10" s="44" t="n">
         <v>345</v>
@@ -4197,10 +4143,10 @@
         <v>1.25</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O10" s="30" t="n">
         <v>1.25</v>
@@ -4218,7 +4164,7 @@
         <v>0.600000024</v>
       </c>
       <c r="T10" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U10" s="45" t="n">
         <v>2</v>
@@ -4227,7 +4173,7 @@
         <v>3</v>
       </c>
       <c r="W10" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X10" s="45" t="n">
         <v>0.1625</v>
@@ -4269,36 +4215,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ10" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="42" t="n">
         <v>10</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11" s="44" t="n">
         <v>345</v>
@@ -4310,10 +4256,10 @@
         <v>28.02</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O11" s="30" t="n">
         <v>1.25</v>
@@ -4331,7 +4277,7 @@
         <v>3.5</v>
       </c>
       <c r="T11" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U11" s="45" t="n">
         <v>2</v>
@@ -4340,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="W11" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X11" s="45" t="n">
         <v>0.181</v>
@@ -4382,36 +4328,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ11" s="48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" s="42" t="n">
         <v>11</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G12" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J12" s="44" t="n">
         <v>345</v>
@@ -4423,10 +4369,10 @@
         <v>1.25</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O12" s="30" t="n">
         <v>1.25</v>
@@ -4444,7 +4390,7 @@
         <v>0.600000024</v>
       </c>
       <c r="T12" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U12" s="45" t="n">
         <v>2</v>
@@ -4453,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X12" s="45" t="n">
         <v>0.1562</v>
@@ -4495,36 +4441,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ12" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="42" t="n">
         <v>12</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13" s="44" t="n">
         <v>345</v>
@@ -4536,10 +4482,10 @@
         <v>24.52</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O13" s="30" t="n">
         <v>1.25</v>
@@ -4557,7 +4503,7 @@
         <v>3.5</v>
       </c>
       <c r="T13" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U13" s="45" t="n">
         <v>2</v>
@@ -4566,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="W13" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X13" s="45" t="n">
         <v>0.1382</v>
@@ -4608,7 +4554,7 @@
         <v>14.85</v>
       </c>
       <c r="AMJ13" s="48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16830,7 +16776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16840,62 +16786,62 @@
       <selection pane="topLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="6" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="F1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
+      <c r="G1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="57" t="s">
         <v>102</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16903,13 +16849,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="61" t="n">
         <v>42081</v>
@@ -16951,13 +16897,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="67" t="n">
         <v>42111</v>
@@ -16999,13 +16945,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="67" t="n">
         <v>42116</v>
@@ -17047,13 +16993,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="67" t="n">
         <v>42347</v>
@@ -17095,13 +17041,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="67" t="n">
         <v>42537</v>
@@ -17143,13 +17089,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="67" t="n">
         <v>42859</v>
@@ -17191,13 +17137,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="67" t="n">
         <v>43157</v>
@@ -17239,13 +17185,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="67" t="n">
         <v>39104</v>
@@ -17287,13 +17233,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="67" t="n">
         <v>39119</v>
@@ -17335,13 +17281,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" s="67" t="n">
         <v>39181</v>
@@ -17383,13 +17329,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" s="67" t="n">
         <v>39196</v>
@@ -17431,13 +17377,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="67" t="n">
         <v>39218</v>
@@ -17479,13 +17425,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="67" t="n">
         <v>39255</v>
@@ -17527,13 +17473,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="67" t="n">
         <v>39269</v>
@@ -17575,13 +17521,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="67" t="n">
         <v>39336</v>
@@ -17623,13 +17569,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E17" s="67" t="n">
         <v>39429</v>
@@ -17671,13 +17617,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" s="67" t="n">
         <v>39562</v>
@@ -17719,13 +17665,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="67" t="n">
         <v>39590</v>
@@ -17767,13 +17713,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="67" t="n">
         <v>39615</v>
@@ -17815,13 +17761,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="67" t="n">
         <v>39680</v>
@@ -17863,13 +17809,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E22" s="67" t="n">
         <v>39791</v>
@@ -17911,13 +17857,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" s="67" t="n">
         <v>39892</v>
@@ -17959,13 +17905,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" s="67" t="n">
         <v>40294</v>
@@ -18007,13 +17953,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" s="67" t="n">
         <v>40490</v>
@@ -18055,13 +18001,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E26" s="67" t="n">
         <v>40878</v>
@@ -18103,13 +18049,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="67" t="n">
         <v>41410</v>
@@ -18151,13 +18097,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="67" t="n">
         <v>41729</v>
@@ -18199,13 +18145,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="67" t="n">
         <v>42158</v>
@@ -18247,13 +18193,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E30" s="67" t="n">
         <v>42557</v>
@@ -18295,13 +18241,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="67" t="n">
         <v>42865</v>
@@ -18343,13 +18289,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D32" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" s="67" t="n">
         <v>43336</v>
@@ -18391,13 +18337,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D33" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E33" s="67" t="n">
         <v>39058</v>
@@ -18439,13 +18385,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D34" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E34" s="67" t="n">
         <v>39832</v>
@@ -18487,13 +18433,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D35" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E35" s="67" t="n">
         <v>40221</v>
@@ -18535,13 +18481,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D36" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E36" s="67" t="n">
         <v>40708</v>
@@ -18583,13 +18529,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D37" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37" s="67" t="n">
         <v>41134</v>
@@ -18631,13 +18577,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E38" s="67" t="n">
         <v>41501</v>
@@ -18679,13 +18625,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D39" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E39" s="67" t="n">
         <v>41828</v>
@@ -18727,13 +18673,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D40" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E40" s="67" t="n">
         <v>42052</v>
@@ -18775,13 +18721,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D41" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E41" s="67" t="n">
         <v>42818</v>
@@ -18823,13 +18769,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D42" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="67" t="n">
         <v>43339</v>
@@ -18871,13 +18817,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E43" s="67" t="n">
         <v>39582</v>
@@ -18919,13 +18865,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E44" s="67" t="n">
         <v>39615</v>
@@ -18967,13 +18913,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E45" s="67" t="n">
         <v>39773</v>
@@ -19015,13 +18961,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E46" s="67" t="n">
         <v>39826</v>
@@ -19063,13 +19009,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47" s="67" t="n">
         <v>39967</v>
@@ -19111,13 +19057,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E48" s="67" t="n">
         <v>40318</v>
@@ -19159,13 +19105,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49" s="67" t="n">
         <v>41135</v>
@@ -19207,13 +19153,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E50" s="67" t="n">
         <v>41900</v>
@@ -19255,13 +19201,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D51" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E51" s="67" t="n">
         <v>42807</v>
@@ -19303,13 +19249,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D52" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E52" s="67" t="n">
         <v>43144</v>
@@ -19351,13 +19297,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E53" s="67" t="n">
         <v>39548</v>
@@ -19399,13 +19345,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D54" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E54" s="67" t="n">
         <v>39826</v>
@@ -19447,13 +19393,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D55" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E55" s="67" t="n">
         <v>40519</v>
@@ -19495,13 +19441,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D56" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E56" s="67" t="n">
         <v>40989</v>
@@ -19543,13 +19489,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E57" s="67" t="n">
         <v>41355</v>
@@ -19591,13 +19537,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D58" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E58" s="67" t="n">
         <v>41697</v>
@@ -19639,13 +19585,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C59" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D59" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E59" s="67" t="n">
         <v>42157</v>
@@ -19687,13 +19633,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D60" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E60" s="67" t="n">
         <v>42667</v>
@@ -19735,13 +19681,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D61" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E61" s="67" t="n">
         <v>42964</v>
@@ -19783,13 +19729,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D62" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E62" s="67" t="n">
         <v>43138</v>
@@ -19831,13 +19777,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C63" s="42" t="n">
         <v>6</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E63" s="67" t="n">
         <v>42559</v>
@@ -19879,13 +19825,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" s="42" t="n">
         <v>6</v>
       </c>
       <c r="D64" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E64" s="67" t="n">
         <v>42780</v>
@@ -19927,13 +19873,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65" s="42" t="n">
         <v>6</v>
       </c>
       <c r="D65" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E65" s="67" t="n">
         <v>43340</v>
@@ -19975,13 +19921,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C66" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E66" s="67" t="n">
         <v>40990</v>
@@ -20023,13 +19969,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C67" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E67" s="67" t="n">
         <v>41355</v>
@@ -20071,13 +20017,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C68" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D68" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E68" s="67" t="n">
         <v>41691</v>
@@ -20119,13 +20065,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E69" s="67" t="n">
         <v>42157</v>
@@ -20167,13 +20113,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D70" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E70" s="67" t="n">
         <v>42802</v>
@@ -20215,13 +20161,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C71" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E71" s="67" t="n">
         <v>43343</v>
@@ -20263,13 +20209,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D72" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E72" s="67" t="n">
         <v>39118</v>
@@ -20311,13 +20257,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D73" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E73" s="67" t="n">
         <v>39423</v>
@@ -20359,13 +20305,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D74" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E74" s="67" t="n">
         <v>39784</v>
@@ -20407,13 +20353,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D75" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E75" s="67" t="n">
         <v>39983</v>
@@ -20455,13 +20401,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D76" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E76" s="67" t="n">
         <v>40519</v>
@@ -20503,13 +20449,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D77" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E77" s="67" t="n">
         <v>40892</v>
@@ -20551,13 +20497,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D78" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E78" s="67" t="n">
         <v>41369</v>
@@ -20599,13 +20545,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C79" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D79" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E79" s="67" t="n">
         <v>41683</v>
@@ -20647,13 +20593,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C80" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D80" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E80" s="67" t="n">
         <v>42478</v>
@@ -20695,13 +20641,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D81" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E81" s="67" t="n">
         <v>42738</v>
@@ -20743,13 +20689,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C82" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D82" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E82" s="67" t="n">
         <v>43143</v>
@@ -20791,13 +20737,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C83" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D83" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E83" s="67" t="n">
         <v>39773</v>
@@ -20839,13 +20785,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D84" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E84" s="67" t="n">
         <v>39874</v>
@@ -20887,13 +20833,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C85" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D85" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E85" s="67" t="n">
         <v>40130</v>
@@ -20935,13 +20881,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C86" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D86" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E86" s="67" t="n">
         <v>40280</v>
@@ -20983,13 +20929,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C87" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D87" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E87" s="67" t="n">
         <v>40851</v>
@@ -21031,13 +20977,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C88" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D88" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E88" s="67" t="n">
         <v>40941</v>
@@ -21079,13 +21025,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C89" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D89" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E89" s="67" t="n">
         <v>41409</v>
@@ -21127,13 +21073,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D90" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E90" s="67" t="n">
         <v>41725</v>
@@ -21175,13 +21121,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D91" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E91" s="67" t="n">
         <v>42537</v>
@@ -21223,13 +21169,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C92" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E92" s="67" t="n">
         <v>42836</v>
@@ -21271,13 +21217,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C93" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E93" s="67" t="n">
         <v>43264</v>
@@ -21319,13 +21265,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C94" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D94" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E94" s="67" t="n">
         <v>39154</v>
@@ -21367,13 +21313,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C95" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D95" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E95" s="67" t="n">
         <v>39828</v>
@@ -21415,13 +21361,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C96" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E96" s="67" t="n">
         <v>40800</v>
@@ -21463,13 +21409,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C97" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D97" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E97" s="67" t="n">
         <v>41502</v>
@@ -21511,13 +21457,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C98" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D98" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E98" s="67" t="n">
         <v>41829</v>
@@ -21559,13 +21505,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C99" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D99" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E99" s="67" t="n">
         <v>42559</v>
@@ -21607,13 +21553,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C100" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D100" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E100" s="67" t="n">
         <v>42849</v>
@@ -21655,13 +21601,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C101" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D101" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E101" s="67" t="n">
         <v>43382</v>
@@ -21703,13 +21649,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C102" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D102" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E102" s="67" t="n">
         <v>39269</v>
@@ -21751,13 +21697,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C103" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D103" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E103" s="67" t="n">
         <v>39406</v>
@@ -21799,13 +21745,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C104" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D104" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E104" s="67" t="n">
         <v>39533</v>
@@ -21847,13 +21793,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C105" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D105" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E105" s="67" t="n">
         <v>39800</v>
@@ -21895,13 +21841,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C106" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D106" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E106" s="67" t="n">
         <v>39829</v>
@@ -21943,13 +21889,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C107" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D107" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E107" s="67" t="n">
         <v>40224</v>
@@ -21991,13 +21937,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C108" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D108" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E108" s="67" t="n">
         <v>41172</v>
@@ -22039,13 +21985,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C109" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D109" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E109" s="67" t="n">
         <v>41751</v>
@@ -22087,13 +22033,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C110" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D110" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E110" s="67" t="n">
         <v>42158</v>
@@ -22135,13 +22081,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C111" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D111" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E111" s="67" t="n">
         <v>42480</v>
@@ -22183,13 +22129,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C112" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D112" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E112" s="67" t="n">
         <v>42781</v>
@@ -22231,13 +22177,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C113" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D113" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E113" s="67" t="n">
         <v>39183</v>
@@ -22279,13 +22225,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C114" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D114" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E114" s="67" t="n">
         <v>39874</v>
@@ -22327,13 +22273,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C115" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D115" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E115" s="67" t="n">
         <v>40490</v>
@@ -22375,13 +22321,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C116" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D116" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E116" s="67" t="n">
         <v>40824</v>
@@ -22423,13 +22369,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C117" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D117" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E117" s="67" t="n">
         <v>40879</v>
@@ -22471,13 +22417,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C118" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D118" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E118" s="67" t="n">
         <v>41355</v>
@@ -22519,13 +22465,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C119" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D119" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E119" s="67" t="n">
         <v>41677</v>
@@ -22567,13 +22513,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C120" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D120" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E120" s="67" t="n">
         <v>42739</v>
@@ -22615,13 +22561,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C121" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D121" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E121" s="67" t="n">
         <v>43405</v>
@@ -25722,7 +25668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -25732,48 +25678,48 @@
       <selection pane="topLeft" activeCell="F122" activeCellId="0" sqref="F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="13.51"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="12" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="12" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="J1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25781,13 +25727,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42082</v>
@@ -25816,13 +25762,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42121</v>
@@ -25851,13 +25797,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42121</v>
@@ -25886,13 +25832,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>42347</v>
@@ -25921,13 +25867,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="76" t="n">
         <v>42542</v>
@@ -25956,13 +25902,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>42863</v>
@@ -25991,13 +25937,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>43160</v>
@@ -26026,13 +25972,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>43542</v>
@@ -26061,13 +26007,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>39105</v>
@@ -26096,13 +26042,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" s="76" t="n">
         <v>39589</v>
@@ -26131,13 +26077,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" s="74" t="n">
         <v>39686</v>
@@ -26166,13 +26112,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="74" t="n">
         <v>39933</v>
@@ -26201,13 +26147,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="74" t="n">
         <v>40295</v>
@@ -26236,13 +26182,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="74" t="n">
         <v>40891</v>
@@ -26271,13 +26217,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="76" t="n">
         <v>41424</v>
@@ -26306,13 +26252,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E17" s="74" t="n">
         <v>41750</v>
@@ -26341,13 +26287,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" s="74" t="n">
         <v>42166</v>
@@ -26376,13 +26322,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="74" t="n">
         <v>42557</v>
@@ -26411,13 +26357,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="74" t="n">
         <v>42866</v>
@@ -26446,13 +26392,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="74" t="n">
         <v>39062</v>
@@ -26479,13 +26425,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D22" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E22" s="74" t="n">
         <v>39846</v>
@@ -26514,13 +26460,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" s="76" t="n">
         <v>40232</v>
@@ -26549,13 +26495,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" s="74" t="n">
         <v>40731</v>
@@ -26584,13 +26530,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" s="74" t="n">
         <v>41143</v>
@@ -26619,13 +26565,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E26" s="74" t="n">
         <v>41487</v>
@@ -26654,13 +26600,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="74" t="n">
         <v>41835</v>
@@ -26689,13 +26635,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="76" t="n">
         <v>42060</v>
@@ -26724,13 +26670,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="74" t="n">
         <v>42829</v>
@@ -26759,13 +26705,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E30" s="74" t="n">
         <v>43152</v>
@@ -26794,13 +26740,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="74" t="n">
         <v>43516</v>
@@ -26829,13 +26775,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" s="74" t="n">
         <v>39576</v>
@@ -26864,13 +26810,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D33" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E33" s="76" t="n">
         <v>39777</v>
@@ -26899,13 +26845,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E34" s="74" t="n">
         <v>39834</v>
@@ -26934,13 +26880,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E35" s="74" t="n">
         <v>40319</v>
@@ -26969,13 +26915,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E36" s="74" t="n">
         <v>41149</v>
@@ -27004,13 +26950,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37" s="74" t="n">
         <v>41897</v>
@@ -27039,13 +26985,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E38" s="76" t="n">
         <v>42823</v>
@@ -27074,13 +27020,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D39" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E39" s="74" t="n">
         <v>43159</v>
@@ -27109,13 +27055,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E40" s="74" t="n">
         <v>43524</v>
@@ -27144,13 +27090,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E41" s="74" t="n">
         <v>38923</v>
@@ -27179,13 +27125,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="76" t="n">
         <v>39552</v>
@@ -27214,13 +27160,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E43" s="74" t="n">
         <v>39834</v>
@@ -27249,13 +27195,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D44" s="78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E44" s="74" t="n">
         <v>40513</v>
@@ -27284,13 +27230,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E45" s="74" t="n">
         <v>40994</v>
@@ -27319,13 +27265,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E46" s="74" t="n">
         <v>41379</v>
@@ -27354,13 +27300,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47" s="74" t="n">
         <v>41698</v>
@@ -27389,13 +27335,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E48" s="79" t="n">
         <v>42160</v>
@@ -27424,13 +27370,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49" s="74" t="n">
         <v>42739</v>
@@ -27459,13 +27405,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="80" t="n">
         <v>5</v>
       </c>
       <c r="D50" s="80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E50" s="74" t="n">
         <v>42965</v>
@@ -27494,13 +27440,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D51" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E51" s="74" t="n">
         <v>43152</v>
@@ -27529,13 +27475,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="80" t="n">
         <v>5</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E52" s="74" t="n">
         <v>43516</v>
@@ -27564,13 +27510,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E53" s="74" t="n">
         <v>42572</v>
@@ -27599,13 +27545,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D54" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E54" s="74" t="n">
         <v>42787</v>
@@ -27634,13 +27580,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D55" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E55" s="74" t="n">
         <v>43152</v>
@@ -27669,13 +27615,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D56" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E56" s="74" t="n">
         <v>43524</v>
@@ -27704,13 +27650,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E57" s="74" t="n">
         <v>40994</v>
@@ -27739,13 +27685,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D58" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E58" s="74" t="n">
         <v>41380</v>
@@ -27774,13 +27720,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D59" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E59" s="74" t="n">
         <v>41694</v>
@@ -27809,13 +27755,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D60" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E60" s="74" t="n">
         <v>42159</v>
@@ -27844,13 +27790,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D61" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E61" s="74" t="n">
         <v>42817</v>
@@ -27879,13 +27825,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D62" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E62" s="74" t="n">
         <v>43551</v>
@@ -27914,13 +27860,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E63" s="74" t="n">
         <v>39120</v>
@@ -27949,13 +27895,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D64" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E64" s="74" t="n">
         <v>39990</v>
@@ -27984,13 +27930,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D65" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E65" s="74" t="n">
         <v>40513</v>
@@ -28019,13 +27965,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E66" s="74" t="n">
         <v>40920</v>
@@ -28054,13 +28000,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E67" s="74" t="n">
         <v>41393</v>
@@ -28089,13 +28035,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D68" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E68" s="74" t="n">
         <v>41684</v>
@@ -28124,13 +28070,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E69" s="74" t="n">
         <v>42510</v>
@@ -28159,13 +28105,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D70" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E70" s="74" t="n">
         <v>42769</v>
@@ -28194,13 +28140,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C71" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E71" s="74" t="n">
         <v>43158</v>
@@ -28229,13 +28175,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D72" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E72" s="74" t="n">
         <v>39776</v>
@@ -28264,13 +28210,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D73" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E73" s="74" t="n">
         <v>39868</v>
@@ -28299,13 +28245,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C74" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D74" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E74" s="74" t="n">
         <v>40281</v>
@@ -28334,13 +28280,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C75" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D75" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E75" s="74" t="n">
         <v>40863</v>
@@ -28369,13 +28315,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D76" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E76" s="74" t="n">
         <v>41424</v>
@@ -28404,13 +28350,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D77" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E77" s="74" t="n">
         <v>41737</v>
@@ -28439,13 +28385,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D78" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E78" s="74" t="n">
         <v>42542</v>
@@ -28474,13 +28420,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D79" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E79" s="74" t="n">
         <v>42843</v>
@@ -28509,13 +28455,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D80" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E80" s="74" t="n">
         <v>43235</v>
@@ -28544,13 +28490,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C81" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D81" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E81" s="74" t="n">
         <v>43558</v>
@@ -28579,13 +28525,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C82" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D82" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E82" s="74" t="n">
         <v>39167</v>
@@ -28614,13 +28560,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C83" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D83" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E83" s="74" t="n">
         <v>39835</v>
@@ -28649,13 +28595,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D84" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E84" s="74" t="n">
         <v>40807</v>
@@ -28684,13 +28630,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C85" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D85" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E85" s="74" t="n">
         <v>41488</v>
@@ -28719,13 +28665,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D86" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E86" s="74" t="n">
         <v>41835</v>
@@ -28754,13 +28700,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C87" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D87" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E87" s="74" t="n">
         <v>42572</v>
@@ -28789,13 +28735,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C88" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D88" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E88" s="74" t="n">
         <v>42852</v>
@@ -28824,13 +28770,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C89" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D89" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E89" s="74" t="n">
         <v>43563</v>
@@ -28859,13 +28805,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C90" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D90" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E90" s="74" t="n">
         <v>39272</v>
@@ -28894,13 +28840,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C91" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D91" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E91" s="74" t="n">
         <v>39805</v>
@@ -28929,13 +28875,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C92" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E92" s="74" t="n">
         <v>39842</v>
@@ -28964,13 +28910,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C93" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E93" s="74" t="n">
         <v>40232</v>
@@ -28999,13 +28945,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C94" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D94" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E94" s="74" t="n">
         <v>41176</v>
@@ -29034,13 +28980,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C95" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D95" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E95" s="74" t="n">
         <v>41778</v>
@@ -29069,13 +29015,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C96" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E96" s="74" t="n">
         <v>42166</v>
@@ -29104,13 +29050,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C97" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D97" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E97" s="74" t="n">
         <v>42538</v>
@@ -29139,13 +29085,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C98" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D98" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E98" s="74" t="n">
         <v>42788</v>
@@ -29174,13 +29120,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C99" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D99" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E99" s="74" t="n">
         <v>43417</v>
@@ -29207,13 +29153,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C100" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D100" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E100" s="74" t="n">
         <v>39169</v>
@@ -29242,13 +29188,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C101" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D101" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E101" s="74" t="n">
         <v>39868</v>
@@ -29277,13 +29223,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C102" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D102" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E102" s="74" t="n">
         <v>40494</v>
@@ -29312,13 +29258,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C103" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D103" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E103" s="74" t="n">
         <v>40834</v>
@@ -29347,13 +29293,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C104" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D104" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E104" s="74" t="n">
         <v>40919</v>
@@ -29382,13 +29328,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C105" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D105" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E105" s="74" t="n">
         <v>41376</v>
@@ -29417,13 +29363,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C106" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D106" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E106" s="74" t="n">
         <v>41676</v>
@@ -29452,13 +29398,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C107" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D107" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E107" s="74" t="n">
         <v>42783</v>
@@ -32573,7 +32519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -32583,47 +32529,47 @@
       <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="11" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="11" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="I1" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="J1" s="82" t="s">
         <v>114</v>
-      </c>
-      <c r="I1" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="82" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32631,13 +32577,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42116</v>
@@ -32661,13 +32607,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42172</v>
@@ -32691,13 +32637,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42172</v>
@@ -32721,13 +32667,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>42350</v>
@@ -32751,13 +32697,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="76" t="n">
         <v>42929</v>
@@ -32781,13 +32727,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>43272</v>
@@ -32813,13 +32759,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>43542</v>
@@ -32845,13 +32791,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>40956</v>
@@ -32877,13 +32823,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>41523</v>
@@ -32909,13 +32855,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>41785</v>
@@ -32939,13 +32885,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" s="74" t="n">
         <v>42173</v>
@@ -32969,13 +32915,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="74" t="n">
         <v>42933</v>
@@ -32999,13 +32945,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="74" t="n">
         <v>43476</v>
@@ -33031,13 +32977,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="74" t="n">
         <v>40781</v>
@@ -33063,13 +33009,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="74" t="n">
         <v>41542</v>
@@ -33095,13 +33041,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E17" s="74" t="n">
         <v>41838</v>
@@ -33125,13 +33071,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" s="74" t="n">
         <v>42116</v>
@@ -33155,13 +33101,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="74" t="n">
         <v>42913</v>
@@ -33185,13 +33131,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="74" t="n">
         <v>43476</v>
@@ -33217,13 +33163,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="74" t="n">
         <v>43516</v>
@@ -33249,13 +33195,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E22" s="74" t="n">
         <v>41171</v>
@@ -33281,13 +33227,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" s="74" t="n">
         <v>41915</v>
@@ -33311,13 +33257,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" s="74" t="n">
         <v>42908</v>
@@ -33341,13 +33287,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" s="74" t="n">
         <v>43271</v>
@@ -33373,13 +33319,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E26" s="74" t="n">
         <v>43524</v>
@@ -33405,13 +33351,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="74" t="n">
         <v>41115</v>
@@ -33437,13 +33383,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="74" t="n">
         <v>41404</v>
@@ -33469,13 +33415,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="74" t="n">
         <v>41752</v>
@@ -33499,13 +33445,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E30" s="74" t="n">
         <v>42172</v>
@@ -33529,13 +33475,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D31" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="74" t="n">
         <v>42794</v>
@@ -33559,13 +33505,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" s="74" t="n">
         <v>42986</v>
@@ -33589,13 +33535,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D33" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E33" s="74" t="n">
         <v>43256</v>
@@ -33621,13 +33567,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E34" s="74" t="n">
         <v>43516</v>
@@ -33653,13 +33599,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E35" s="74" t="n">
         <v>42797</v>
@@ -33683,13 +33629,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E36" s="74" t="n">
         <v>43476</v>
@@ -33715,13 +33661,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D37" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37" s="74" t="n">
         <v>43524</v>
@@ -33747,13 +33693,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D38" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E38" s="74" t="n">
         <v>41115</v>
@@ -33779,13 +33725,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C39" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E39" s="74" t="n">
         <v>41417</v>
@@ -33811,13 +33757,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D40" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E40" s="74" t="n">
         <v>41752</v>
@@ -33841,13 +33787,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E41" s="74" t="n">
         <v>42172</v>
@@ -33871,13 +33817,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="74" t="n">
         <v>42790</v>
@@ -33901,13 +33847,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C43" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E43" s="74" t="n">
         <v>42907</v>
@@ -33931,13 +33877,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D44" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E44" s="74" t="n">
         <v>43477</v>
@@ -33963,13 +33909,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C45" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D45" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E45" s="74" t="n">
         <v>43551</v>
@@ -33995,13 +33941,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C46" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D46" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E46" s="74" t="n">
         <v>40956</v>
@@ -34027,13 +33973,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D47" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47" s="74" t="n">
         <v>41521</v>
@@ -34059,13 +34005,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C48" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E48" s="74" t="n">
         <v>41688</v>
@@ -34089,13 +34035,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D49" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49" s="74" t="n">
         <v>42794</v>
@@ -34119,13 +34065,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D50" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E50" s="74" t="n">
         <v>43271</v>
@@ -34151,13 +34097,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D51" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E51" s="74" t="n">
         <v>40871</v>
@@ -34183,13 +34129,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C52" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D52" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E52" s="74" t="n">
         <v>41785</v>
@@ -34213,13 +34159,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D53" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E53" s="74" t="n">
         <v>42923</v>
@@ -34243,13 +34189,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D54" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E54" s="74" t="n">
         <v>43272</v>
@@ -34275,13 +34221,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E55" s="74" t="n">
         <v>43558</v>
@@ -34307,13 +34253,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D56" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E56" s="74" t="n">
         <v>40822</v>
@@ -34339,13 +34285,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C57" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E57" s="74" t="n">
         <v>41542</v>
@@ -34369,13 +34315,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C58" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D58" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E58" s="67" t="n">
         <v>41841</v>
@@ -34399,13 +34345,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D59" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E59" s="83" t="n">
         <v>42929</v>
@@ -34429,13 +34375,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D60" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E60" s="67" t="n">
         <v>43563</v>
@@ -34461,13 +34407,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C61" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D61" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E61" s="67" t="n">
         <v>41228</v>
@@ -34493,13 +34439,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D62" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E62" s="67" t="n">
         <v>41817</v>
@@ -34523,13 +34469,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E63" s="67" t="n">
         <v>42173</v>
@@ -34553,13 +34499,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D64" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E64" s="67" t="n">
         <v>42800</v>
@@ -34583,13 +34529,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D65" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E65" s="67" t="n">
         <v>40848</v>
@@ -34615,13 +34561,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E66" s="67" t="n">
         <v>40956</v>
@@ -34647,13 +34593,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E67" s="67" t="n">
         <v>41383</v>
@@ -34679,13 +34625,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D68" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E68" s="67" t="n">
         <v>41681</v>
@@ -34709,13 +34655,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E69" s="67" t="n">
         <v>42796</v>
@@ -39082,7 +39028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -39092,48 +39038,48 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="39.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="11" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="11" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>120</v>
-      </c>
       <c r="J1" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39141,13 +39087,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42865</v>
@@ -39173,13 +39119,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42557</v>
@@ -39205,13 +39151,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42158</v>
@@ -39237,13 +39183,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>41729</v>
@@ -39269,13 +39215,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="74" t="n">
         <v>41410</v>
@@ -39301,13 +39247,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>42739</v>
@@ -39333,13 +39279,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>41676</v>
@@ -39365,13 +39311,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>41354</v>
@@ -39397,13 +39343,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>41354</v>
@@ -39429,13 +39375,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>41341</v>
@@ -40537,7 +40483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -40547,51 +40493,51 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="82" t="s">
+      <c r="J1" s="82" t="s">
         <v>122</v>
-      </c>
-      <c r="I1" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="82" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40599,13 +40545,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42866</v>
@@ -40623,7 +40569,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40631,13 +40577,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42557</v>
@@ -40655,7 +40601,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40663,13 +40609,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42166</v>
@@ -40687,7 +40633,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40695,13 +40641,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>41750</v>
@@ -40719,7 +40665,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40727,13 +40673,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="74" t="n">
         <v>41424</v>
@@ -40751,7 +40697,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40759,13 +40705,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>42782</v>
@@ -40783,7 +40729,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40791,13 +40737,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>41676</v>
@@ -40815,7 +40761,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40823,13 +40769,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>41373</v>
@@ -40847,7 +40793,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40855,13 +40801,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>41373</v>
@@ -40879,7 +40825,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40887,13 +40833,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>41373</v>
@@ -40911,7 +40857,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41994,7 +41940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -42004,38 +41950,38 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="14.83"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="8" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="8" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G1" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42043,13 +41989,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42866</v>
@@ -42066,13 +42012,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42557</v>
@@ -42089,13 +42035,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42166</v>
@@ -42112,13 +42058,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>41750</v>
@@ -42135,13 +42081,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="74" t="n">
         <v>41424</v>
@@ -42158,13 +42104,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>42782</v>
@@ -42181,13 +42127,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>41676</v>
@@ -42204,13 +42150,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>41373</v>
@@ -42227,13 +42173,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>41373</v>
@@ -42250,13 +42196,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>41373</v>
@@ -43081,7 +43027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -43091,37 +43037,37 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="8" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="8" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43129,13 +43075,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42866</v>
@@ -43152,13 +43098,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42557</v>
@@ -43175,13 +43121,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42166</v>
@@ -43198,13 +43144,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>41750</v>
@@ -43221,13 +43167,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="74" t="n">
         <v>41424</v>
@@ -43244,13 +43190,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>42782</v>
@@ -43267,13 +43213,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>41676</v>
@@ -43290,13 +43236,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>41373</v>
@@ -43313,13 +43259,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>41373</v>
@@ -43336,13 +43282,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>41373</v>
